--- a/sens-tab/inputs/inputs.xlsx
+++ b/sens-tab/inputs/inputs.xlsx
@@ -255,6 +255,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -377,13 +378,13 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.83203125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.83984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="43.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="43.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="13.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="11.11"/>
@@ -1704,7 +1705,7 @@
       <c r="D28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="2" t="n">
+      <c r="E28" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F28" s="4" t="n">
@@ -1732,7 +1733,7 @@
       <c r="M28" s="4" t="n">
         <v>0.167</v>
       </c>
-      <c r="N28" s="2" t="n">
+      <c r="N28" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O28" s="2" t="n">
@@ -1841,7 +1842,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="1" right="1" top="1.66666666666667" bottom="1.66666666666667" header="1" footer="1"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="atEnd" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Sans,Regular"&amp;K000000&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Sans,Regular"&amp;K000000Page &amp;P</oddFooter>

--- a/sens-tab/inputs/inputs.xlsx
+++ b/sens-tab/inputs/inputs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="70">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -47,9 +47,6 @@
     <t xml:space="preserve">Slurry TAN</t>
   </si>
   <si>
-    <t xml:space="preserve">Slurry treatment</t>
-  </si>
-  <si>
     <t xml:space="preserve">Application rate</t>
   </si>
   <si>
@@ -122,9 +119,6 @@
     <t xml:space="preserve">man.tan</t>
   </si>
   <si>
-    <t xml:space="preserve">man.treat1</t>
-  </si>
-  <si>
     <t xml:space="preserve">app.rate</t>
   </si>
   <si>
@@ -239,7 +233,7 @@
     <t xml:space="preserve">pig</t>
   </si>
   <si>
-    <t xml:space="preserve">tall cereal</t>
+    <t xml:space="preserve">pig pig DM</t>
   </si>
 </sst>
 </file>
@@ -375,13 +369,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.83984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="43.59"/>
@@ -390,19 +384,19 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="11.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="10.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="13.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="18.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="17.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="22.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="15.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="14.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="20.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="10.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="13.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="10.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="256" min="17" style="1" width="10.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="17.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="22.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="15.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="14.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="20.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="13.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="10.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="255" min="16" style="1" width="10.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,15 +442,15 @@
       <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -465,7 +459,7 @@
       <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -477,72 +471,66 @@
       <c r="O2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="2" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>6</v>
@@ -553,44 +541,41 @@
       <c r="G4" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="J4" s="3" t="n">
-        <f aca="false">G4*I4</f>
-        <v>48</v>
-      </c>
-      <c r="K4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>43</v>
+      <c r="H4" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <f aca="false">G4*H4</f>
+        <v>48</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>13</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>13</v>
+        <v>2.7</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="P4" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>3</v>
@@ -601,44 +586,41 @@
       <c r="G5" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="J5" s="3" t="n">
-        <f aca="false">G5*I5</f>
-        <v>48</v>
-      </c>
-      <c r="K5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>43</v>
+      <c r="H5" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <f aca="false">G5*H5</f>
+        <v>48</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>13</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>13</v>
+        <v>2.7</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="P5" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E6" s="4" t="n">
         <v>10</v>
@@ -649,44 +631,41 @@
       <c r="G6" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="J6" s="3" t="n">
-        <f aca="false">G6*I6</f>
-        <v>48</v>
-      </c>
-      <c r="K6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>43</v>
+      <c r="H6" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <f aca="false">G6*H6</f>
+        <v>48</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>13</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>13</v>
+        <v>2.7</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="P6" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>6</v>
@@ -697,143 +676,134 @@
       <c r="G7" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="4" t="n">
+      <c r="H7" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="J7" s="3" t="n">
-        <f aca="false">G7*I7</f>
-        <v>6</v>
-      </c>
-      <c r="K7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>43</v>
+      <c r="I7" s="3" t="n">
+        <f aca="false">G7*H7</f>
+        <v>6</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>13</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>13</v>
+        <v>2.7</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="P7" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <f aca="false">G8*H8</f>
+        <v>120</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <f aca="false">G9*H9</f>
+        <v>48</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="J8" s="3" t="n">
-        <f aca="false">G8*I8</f>
-        <v>120</v>
-      </c>
-      <c r="K8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N8" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="O8" s="2" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="P8" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="J9" s="3" t="n">
-        <f aca="false">G9*I9</f>
-        <v>48</v>
-      </c>
-      <c r="K9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M9" s="4" t="n">
+      <c r="L9" s="4" t="n">
         <v>3</v>
       </c>
+      <c r="M9" s="2" t="n">
+        <v>13</v>
+      </c>
       <c r="N9" s="2" t="n">
-        <v>13</v>
+        <v>2.7</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="P9" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>6</v>
@@ -844,47 +814,44 @@
       <c r="G10" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="J10" s="3" t="n">
-        <f aca="false">G10*I10</f>
-        <v>48</v>
-      </c>
-      <c r="K10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M10" s="4" t="n">
+      <c r="H10" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <f aca="false">G10*H10</f>
+        <v>48</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="4" t="n">
         <v>3</v>
       </c>
+      <c r="M10" s="2" t="n">
+        <v>13</v>
+      </c>
       <c r="N10" s="2" t="n">
-        <v>13</v>
+        <v>2.7</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="P10" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>6</v>
@@ -895,47 +862,44 @@
       <c r="G11" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="J11" s="3" t="n">
-        <f aca="false">G11*I11</f>
-        <v>48</v>
-      </c>
-      <c r="K11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M11" s="4" t="n">
+      <c r="H11" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <f aca="false">G11*H11</f>
+        <v>48</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" s="4" t="n">
         <v>0.167</v>
       </c>
+      <c r="M11" s="2" t="n">
+        <v>13</v>
+      </c>
       <c r="N11" s="2" t="n">
-        <v>13</v>
+        <v>2.7</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="P11" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>6</v>
@@ -946,44 +910,41 @@
       <c r="G12" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="J12" s="3" t="n">
-        <f aca="false">G12*I12</f>
-        <v>48</v>
-      </c>
-      <c r="K12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N12" s="4" t="n">
-        <v>0</v>
+      <c r="H12" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <f aca="false">G12*H12</f>
+        <v>48</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2" t="n">
+        <v>2.7</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="P12" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>6</v>
@@ -994,44 +955,41 @@
       <c r="G13" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="J13" s="3" t="n">
-        <f aca="false">G13*I13</f>
-        <v>48</v>
-      </c>
-      <c r="K13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N13" s="4" t="n">
+      <c r="H13" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="I13" s="3" t="n">
+        <f aca="false">G13*H13</f>
+        <v>48</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" s="4" t="n">
         <v>7</v>
       </c>
+      <c r="N13" s="2" t="n">
+        <v>2.7</v>
+      </c>
       <c r="O13" s="2" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="P13" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>6</v>
@@ -1042,44 +1000,41 @@
       <c r="G14" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="J14" s="3" t="n">
-        <f aca="false">G14*I14</f>
-        <v>48</v>
-      </c>
-      <c r="K14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N14" s="4" t="n">
+      <c r="H14" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <f aca="false">G14*H14</f>
+        <v>48</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" s="4" t="n">
         <v>20</v>
       </c>
+      <c r="N14" s="2" t="n">
+        <v>2.7</v>
+      </c>
       <c r="O14" s="2" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="P14" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>6</v>
@@ -1090,44 +1045,41 @@
       <c r="G15" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="J15" s="3" t="n">
-        <f aca="false">G15*I15</f>
-        <v>48</v>
-      </c>
-      <c r="K15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N15" s="4" t="n">
+      <c r="H15" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <f aca="false">G15*H15</f>
+        <v>48</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M15" s="4" t="n">
         <v>35</v>
       </c>
+      <c r="N15" s="2" t="n">
+        <v>2.7</v>
+      </c>
       <c r="O15" s="2" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="P15" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>6</v>
@@ -1138,44 +1090,41 @@
       <c r="G16" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="J16" s="3" t="n">
-        <f aca="false">G16*I16</f>
-        <v>48</v>
-      </c>
-      <c r="K16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>43</v>
+      <c r="H16" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <f aca="false">G16*H16</f>
+        <v>48</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M16" s="2" t="n">
+        <v>13</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>13</v>
+        <v>2.7</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="P16" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>6</v>
@@ -1186,44 +1135,41 @@
       <c r="G17" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="J17" s="3" t="n">
-        <f aca="false">G17*I17</f>
-        <v>48</v>
-      </c>
-      <c r="K17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>43</v>
+      <c r="H17" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="I17" s="3" t="n">
+        <f aca="false">G17*H17</f>
+        <v>48</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M17" s="2" t="n">
+        <v>13</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>13</v>
+        <v>2.7</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="P17" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>6</v>
@@ -1234,44 +1180,41 @@
       <c r="G18" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="J18" s="3" t="n">
-        <f aca="false">G18*I18</f>
-        <v>48</v>
-      </c>
-      <c r="K18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N18" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="O18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H18" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <f aca="false">G18*H18</f>
+        <v>48</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="N18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>6</v>
@@ -1282,44 +1225,41 @@
       <c r="G19" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="J19" s="3" t="n">
-        <f aca="false">G19*I19</f>
-        <v>48</v>
-      </c>
-      <c r="K19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N19" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="O19" s="4" t="n">
+      <c r="H19" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="I19" s="3" t="n">
+        <f aca="false">G19*H19</f>
+        <v>48</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="N19" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="P19" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O19" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>6</v>
@@ -1330,44 +1270,41 @@
       <c r="G20" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="J20" s="3" t="n">
-        <f aca="false">G20*I20</f>
-        <v>48</v>
-      </c>
-      <c r="K20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>43</v>
+      <c r="H20" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="I20" s="3" t="n">
+        <f aca="false">G20*H20</f>
+        <v>48</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M20" s="2" t="n">
+        <v>13</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="O20" s="2" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="P20" s="4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O20" s="4" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>6</v>
@@ -1378,44 +1315,41 @@
       <c r="G21" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="J21" s="3" t="n">
-        <f aca="false">G21*I21</f>
-        <v>48</v>
-      </c>
-      <c r="K21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>43</v>
+      <c r="H21" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="I21" s="3" t="n">
+        <f aca="false">G21*H21</f>
+        <v>48</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M21" s="2" t="n">
+        <v>13</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="O21" s="2" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="P21" s="4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O21" s="4" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>6</v>
@@ -1426,44 +1360,41 @@
       <c r="G22" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="J22" s="3" t="n">
-        <f aca="false">G22*I22</f>
-        <v>48</v>
-      </c>
-      <c r="K22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>43</v>
+      <c r="H22" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="I22" s="3" t="n">
+        <f aca="false">G22*H22</f>
+        <v>48</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M22" s="2" t="n">
+        <v>13</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="O22" s="2" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="P22" s="4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O22" s="4" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>6</v>
@@ -1474,44 +1405,41 @@
       <c r="G23" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="J23" s="3" t="n">
-        <f aca="false">G23*I23</f>
-        <v>48</v>
-      </c>
-      <c r="K23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>43</v>
+      <c r="H23" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="I23" s="3" t="n">
+        <f aca="false">G23*H23</f>
+        <v>48</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M23" s="2" t="n">
+        <v>13</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>13</v>
+        <v>2.7</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="P23" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>6</v>
@@ -1522,44 +1450,41 @@
       <c r="G24" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="J24" s="3" t="n">
-        <f aca="false">G24*I24</f>
-        <v>48</v>
-      </c>
-      <c r="K24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>43</v>
+      <c r="H24" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="I24" s="3" t="n">
+        <f aca="false">G24*H24</f>
+        <v>48</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M24" s="2" t="n">
+        <v>13</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>13</v>
+        <v>2.7</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="P24" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E25" s="4" t="n">
         <v>3</v>
@@ -1570,44 +1495,41 @@
       <c r="G25" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I25" s="4" t="n">
+      <c r="H25" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="J25" s="3" t="n">
-        <f aca="false">G25*I25</f>
+      <c r="I25" s="3" t="n">
+        <f aca="false">G25*H25</f>
         <v>120</v>
       </c>
-      <c r="K25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>43</v>
+      <c r="J25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M25" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="N25" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="O25" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O25" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E26" s="4" t="n">
         <v>10</v>
@@ -1618,44 +1540,41 @@
       <c r="G26" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I26" s="4" t="n">
+      <c r="H26" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="J26" s="3" t="n">
-        <f aca="false">G26*I26</f>
-        <v>6</v>
-      </c>
-      <c r="K26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>43</v>
+      <c r="I26" s="3" t="n">
+        <f aca="false">G26*H26</f>
+        <v>6</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M26" s="4" t="n">
+        <v>35</v>
       </c>
       <c r="N26" s="4" t="n">
-        <v>35</v>
-      </c>
-      <c r="O26" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="P26" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O26" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E27" s="4" t="n">
         <v>10</v>
@@ -1666,44 +1585,41 @@
       <c r="G27" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I27" s="4" t="n">
+      <c r="H27" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="J27" s="3" t="n">
-        <f aca="false">G27*I27</f>
-        <v>6</v>
-      </c>
-      <c r="K27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>43</v>
+      <c r="I27" s="3" t="n">
+        <f aca="false">G27*H27</f>
+        <v>6</v>
+      </c>
+      <c r="J27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M27" s="4" t="n">
+        <v>35</v>
       </c>
       <c r="N27" s="4" t="n">
-        <v>35</v>
-      </c>
-      <c r="O27" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="P27" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O27" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E28" s="4" t="n">
         <v>1</v>
@@ -1714,47 +1630,44 @@
       <c r="G28" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="J28" s="3" t="n">
-        <f aca="false">G28*I28</f>
-        <v>48</v>
-      </c>
-      <c r="K28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>51</v>
+      <c r="H28" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="I28" s="3" t="n">
+        <f aca="false">G28*H28</f>
+        <v>48</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L28" s="4" t="n">
+        <v>0.167</v>
       </c>
       <c r="M28" s="4" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="N28" s="4" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N28" s="2" t="n">
+        <v>2.7</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="P28" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>70</v>
+      <c r="D29" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>6</v>
@@ -1765,47 +1678,44 @@
       <c r="G29" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="J29" s="3" t="n">
-        <f aca="false">G29*I29</f>
-        <v>48</v>
-      </c>
-      <c r="K29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>43</v>
+      <c r="H29" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="I29" s="3" t="n">
+        <f aca="false">G29*H29</f>
+        <v>48</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M29" s="2" t="n">
+        <v>13</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>13</v>
+        <v>2.7</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="P29" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="2" t="n">
-        <v>6</v>
+      <c r="D30" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="4" t="n">
+        <v>4</v>
       </c>
       <c r="F30" s="2" t="n">
         <v>7.5</v>
@@ -1813,29 +1723,26 @@
       <c r="G30" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="J30" s="3" t="n">
-        <f aca="false">G30*I30</f>
-        <v>48</v>
-      </c>
-      <c r="K30" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>43</v>
+      <c r="H30" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="I30" s="3" t="n">
+        <f aca="false">G30*H30</f>
+        <v>48</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M30" s="2" t="n">
+        <v>13</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>13</v>
+        <v>2.7</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="P30" s="2" t="n">
         <v>0</v>
       </c>
     </row>
